--- a/product.xlsx
+++ b/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>월별/품목별 판매수량/매출액 구하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>Galaxy S10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +655,7 @@
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -744,6 +748,9 @@
       <c r="E8" s="20"/>
       <c r="F8" s="8"/>
       <c r="G8" s="20"/>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="18"/>
